--- a/biology/Botanique/Dioressence_(rose)/Dioressence_(rose).xlsx
+++ b/biology/Botanique/Dioressence_(rose)/Dioressence_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Dioressence' est un cultivar de rosier hybride de thé grandiflora obtenu en 1984 par le rosiériste français Georges Delbard[1]. Il doit son nom au parfum « Dioressence » de la maison Parfums Christian Dior, lancé en 1979 et créé par Guy Robert.
+'Dioressence' est un cultivar de rosier hybride de thé grandiflora obtenu en 1984 par le rosiériste français Georges Delbard. Il doit son nom au parfum « Dioressence » de la maison Parfums Christian Dior, lancé en 1979 et créé par Guy Robert.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de 'Dioressence' d'un feuillage lustré s'élève de 90 cm à 100 cm, pour une envergure de 60 cm[2]. Ce rosier est remarquable par la couleur mauve[3] de ses fleurs qui sont fortement odorantes. Elles sont grandes et pleines (26-40 pétales) et fleurissent en petits bouquets de 3 à 5 fleurs, en forme de coupe, tout au long de la saison[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de 'Dioressence' d'un feuillage lustré s'élève de 90 cm à 100 cm, pour une envergure de 60 cm. Ce rosier est remarquable par la couleur mauve de ses fleurs qui sont fortement odorantes. Elles sont grandes et pleines (26-40 pétales) et fleurissent en petits bouquets de 3 à 5 fleurs, en forme de coupe, tout au long de la saison.
 Sa zone de rusticité commence à 7b. Son pied a besoin d'être protégé en cas d'hiver froid. Il nécessite d'être taillé début mars et d'être bien traité contre la maladie des taches noires.
-'Dioressence' est issu d'un semis avec un hybride ('Holstein' x 'Bayadère') x Prélude[4].
+'Dioressence' est issu d'un semis avec un hybride ('Holstein' x 'Bayadère') x Prélude.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Nuit d'Orient', 'Dioressence' a donné naissance à 'Violette Parfumée' (Dorieux, 1992).
 </t>
@@ -576,7 +592,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Monza Fragrance Award 1984</t>
         </is>
